--- a/Tables/Tables-updated.xlsx
+++ b/Tables/Tables-updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shumi\Desktop\RestoreNet-Publish\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5E7A7A-65FB-41FD-A07F-7D5282D6425B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D27E9A5-84D9-4107-9499-05736D0E4A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="185">
   <si>
     <t>Response variables</t>
   </si>
@@ -1111,7 +1111,7 @@
       <sheetName val="nichevalues"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
@@ -7291,7 +7291,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="J17" sqref="J17:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8039,8 +8039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BB0CE5-887D-4D47-90CD-EF50A904049A}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8192,14 +8192,14 @@
       <c r="D7" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="74" t="s">
-        <v>9</v>
+      <c r="E7" s="83">
+        <v>22.9416667421659</v>
+      </c>
+      <c r="F7" s="74">
+        <v>528</v>
+      </c>
+      <c r="G7" s="74">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -8293,14 +8293,14 @@
       <c r="D12" s="74" t="s">
         <v>128</v>
       </c>
-      <c r="E12" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="74" t="s">
-        <v>9</v>
+      <c r="E12" s="55">
+        <v>23.462500015894602</v>
+      </c>
+      <c r="F12" s="34">
+        <v>846</v>
+      </c>
+      <c r="G12" s="34">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -8359,14 +8359,14 @@
       <c r="D15" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="74" t="s">
-        <v>9</v>
+      <c r="E15" s="83">
+        <v>24.200000047683702</v>
+      </c>
+      <c r="F15" s="74">
+        <v>706</v>
+      </c>
+      <c r="G15" s="74">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -8425,14 +8425,14 @@
       <c r="D18" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="74" t="s">
-        <v>9</v>
+      <c r="E18" s="83">
+        <v>23.412499964237199</v>
+      </c>
+      <c r="F18" s="74">
+        <v>423</v>
+      </c>
+      <c r="G18" s="74">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="29" x14ac:dyDescent="0.35">
@@ -9657,7 +9657,7 @@
   </sheetPr>
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>

--- a/Tables/Tables-updated.xlsx
+++ b/Tables/Tables-updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shumi\Desktop\RestoreNet-Publish\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D27E9A5-84D9-4107-9499-05736D0E4A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEB51E5-4036-4A54-BC17-F74CCEBEF7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="187">
   <si>
     <t>Response variables</t>
   </si>
@@ -606,6 +606,12 @@
   </si>
   <si>
     <t>Table 4</t>
+  </si>
+  <si>
+    <t>Purple threeawn (P-G)</t>
+  </si>
+  <si>
+    <t>Rothrock Grama (P-G)</t>
   </si>
 </sst>
 </file>
@@ -613,8 +619,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -786,7 +792,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -833,14 +839,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -853,28 +859,28 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1082,8 +1088,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8037,10 +8043,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BB0CE5-887D-4D47-90CD-EF50A904049A}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8050,11 +8056,10 @@
     <col min="3" max="3" width="22.26953125" style="80" customWidth="1"/>
     <col min="4" max="4" width="17" style="80" customWidth="1"/>
     <col min="5" max="5" width="6.7265625" style="80" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7265625" style="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" style="80" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="93" t="s">
         <v>175</v>
       </c>
@@ -8068,14 +8073,11 @@
       <c r="E1" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="57" t="s">
+      <c r="F1" s="57" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="75" t="s">
         <v>149</v>
       </c>
@@ -8084,9 +8086,8 @@
       <c r="D2" s="74"/>
       <c r="E2" s="83"/>
       <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" s="76" t="s">
         <v>113</v>
       </c>
@@ -8101,15 +8102,11 @@
         <v>21.662499884764401</v>
       </c>
       <c r="F3" s="74">
-        <f>_xlfn.XLOOKUP(B3,[1]nichevalues!A:A,[1]nichevalues!G:G,0,0)</f>
-        <v>767</v>
-      </c>
-      <c r="G3" s="74">
         <f>_xlfn.XLOOKUP(B3,'[1]seeding rate'!A:A,'[1]seeding rate'!C:C,0,0)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="34"/>
       <c r="B4" s="76" t="s">
         <v>109</v>
@@ -8125,15 +8122,11 @@
         <v>21.7541668613752</v>
       </c>
       <c r="F4" s="74">
-        <f>_xlfn.XLOOKUP(B4,[1]nichevalues!A:A,[1]nichevalues!G:G,0,0)</f>
-        <v>505</v>
-      </c>
-      <c r="G4" s="74">
         <f>_xlfn.XLOOKUP(B4,'[1]seeding rate'!A:A,'[1]seeding rate'!C:C,0,0)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="34"/>
       <c r="B5" s="49" t="s">
         <v>105</v>
@@ -8149,15 +8142,11 @@
         <v>21.804166575272902</v>
       </c>
       <c r="F5" s="74">
-        <f>_xlfn.XLOOKUP(B5,[1]nichevalues!A:A,[1]nichevalues!G:G,0,0)</f>
-        <v>504</v>
-      </c>
-      <c r="G5" s="74">
         <f>_xlfn.XLOOKUP(B5,'[1]seeding rate'!A:A,'[1]seeding rate'!C:C,0,0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="34"/>
       <c r="B6" s="66" t="s">
         <v>101</v>
@@ -8173,15 +8162,11 @@
         <v>22.870833317438802</v>
       </c>
       <c r="F6" s="74">
-        <f>_xlfn.XLOOKUP(B6,[1]nichevalues!A:A,[1]nichevalues!G:G,0,0)</f>
-        <v>733</v>
-      </c>
-      <c r="G6" s="74">
         <f>_xlfn.XLOOKUP(B6,'[1]seeding rate'!A:A,'[1]seeding rate'!C:C,0,0)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="34"/>
       <c r="B7" s="54" t="s">
         <v>151</v>
@@ -8196,13 +8181,10 @@
         <v>22.9416667421659</v>
       </c>
       <c r="F7" s="74">
-        <v>528</v>
-      </c>
-      <c r="G7" s="74">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="34"/>
       <c r="B8" s="54" t="s">
         <v>93</v>
@@ -8218,15 +8200,11 @@
         <v>19.654166481768101</v>
       </c>
       <c r="F8" s="74">
-        <f>_xlfn.XLOOKUP(B8,[1]nichevalues!A:A,[1]nichevalues!G:G,0,0)</f>
-        <v>1000</v>
-      </c>
-      <c r="G8" s="74">
         <f>_xlfn.XLOOKUP(B8,'[1]seeding rate'!A:A,'[1]seeding rate'!C:C,0,0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="34"/>
       <c r="B9" s="54" t="s">
         <v>90</v>
@@ -8242,15 +8220,11 @@
         <v>20.858333269755001</v>
       </c>
       <c r="F9" s="74">
-        <f>_xlfn.XLOOKUP(B9,[1]nichevalues!A:A,[1]nichevalues!G:G,0,0)</f>
-        <v>497</v>
-      </c>
-      <c r="G9" s="74">
         <f>_xlfn.XLOOKUP(B9,'[1]seeding rate'!A:A,'[1]seeding rate'!C:C,0,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="34"/>
       <c r="B10" s="54" t="s">
         <v>87</v>
@@ -8266,29 +8240,24 @@
         <v>22.887500206629401</v>
       </c>
       <c r="F10" s="74">
-        <f>_xlfn.XLOOKUP(B10,[1]nichevalues!A:A,[1]nichevalues!G:G,0,0)</f>
-        <v>421</v>
-      </c>
-      <c r="G10" s="74">
         <f>_xlfn.XLOOKUP(B10,'[1]seeding rate'!A:A,'[1]seeding rate'!C:C,0,0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="75" t="s">
         <v>150</v>
       </c>
       <c r="D11" s="74"/>
       <c r="E11" s="83"/>
       <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-    </row>
-    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="54" t="s">
         <v>152</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D12" s="74" t="s">
         <v>128</v>
@@ -8297,13 +8266,10 @@
         <v>23.462500015894602</v>
       </c>
       <c r="F12" s="34">
-        <v>846</v>
-      </c>
-      <c r="G12" s="34">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="76" t="s">
         <v>79</v>
       </c>
@@ -8318,15 +8284,11 @@
         <v>23.5000000198682</v>
       </c>
       <c r="F13" s="74">
-        <f>_xlfn.XLOOKUP(B13,[1]nichevalues!A:A,[1]nichevalues!G:G,0,0)</f>
-        <v>354</v>
-      </c>
-      <c r="G13" s="74">
         <f>_xlfn.XLOOKUP(B13,'[1]seeding rate'!A:A,'[1]seeding rate'!C:C,0,0)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="54" t="s">
         <v>74</v>
       </c>
@@ -8341,20 +8303,16 @@
         <v>23.825000166892998</v>
       </c>
       <c r="F14" s="74">
-        <f>_xlfn.XLOOKUP(B14,[1]nichevalues!A:A,[1]nichevalues!G:G,0,0)</f>
-        <v>508</v>
-      </c>
-      <c r="G14" s="74">
         <f>_xlfn.XLOOKUP(B14,'[1]seeding rate'!A:A,'[1]seeding rate'!C:C,0,0)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B15" s="76" t="s">
         <v>153</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="D15" s="74" t="s">
         <v>129</v>
@@ -8363,13 +8321,10 @@
         <v>24.200000047683702</v>
       </c>
       <c r="F15" s="74">
-        <v>706</v>
-      </c>
-      <c r="G15" s="74">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" s="54" t="s">
         <v>65</v>
       </c>
@@ -8384,15 +8339,11 @@
         <v>24.8750001192093</v>
       </c>
       <c r="F16" s="74">
-        <f>_xlfn.XLOOKUP(B16,[1]nichevalues!A:A,[1]nichevalues!G:G,0,0)</f>
-        <v>845</v>
-      </c>
-      <c r="G16" s="74">
         <f>_xlfn.XLOOKUP(B16,'[1]seeding rate'!A:A,'[1]seeding rate'!C:C,0,0)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="66" t="s">
         <v>60</v>
       </c>
@@ -8407,15 +8358,11 @@
         <v>23.0624998807907</v>
       </c>
       <c r="F17" s="74">
-        <f>_xlfn.XLOOKUP(B17,[1]nichevalues!A:A,[1]nichevalues!G:G,0,0)</f>
-        <v>1051</v>
-      </c>
-      <c r="G17" s="74">
         <f>_xlfn.XLOOKUP(B17,'[1]seeding rate'!A:A,'[1]seeding rate'!C:C,0,0)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="54" t="s">
         <v>154</v>
       </c>
@@ -8429,13 +8376,10 @@
         <v>23.412499964237199</v>
       </c>
       <c r="F18" s="74">
-        <v>423</v>
-      </c>
-      <c r="G18" s="74">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B19" s="81" t="s">
         <v>49</v>
       </c>
@@ -8450,10 +8394,6 @@
         <v>23.9708330631256</v>
       </c>
       <c r="F19" s="82">
-        <f>_xlfn.XLOOKUP(B19,[1]nichevalues!A:A,[1]nichevalues!G:G,0,0)</f>
-        <v>942</v>
-      </c>
-      <c r="G19" s="82">
         <f>_xlfn.XLOOKUP(B19,'[1]seeding rate'!A:A,'[1]seeding rate'!C:C,0,0)</f>
         <v>5</v>
       </c>
